--- a/Data/data_algoritmes_uitvoeringtests.xlsx
+++ b/Data/data_algoritmes_uitvoeringtests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -829,11 +829,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="43941935"/>
-        <c:axId val="98117438"/>
+        <c:axId val="44198694"/>
+        <c:axId val="92570943"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43941935"/>
+        <c:axId val="44198694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +854,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Grootte</a:t>
+                  <a:t>Grootte venster/reservoir</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -889,14 +889,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98117438"/>
+        <c:crossAx val="92570943"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98117438"/>
+        <c:axId val="92570943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -962,7 +962,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43941935"/>
+        <c:crossAx val="44198694"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1016,8 +1016,9 @@
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1037,22 +1038,11 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -1066,7 +1056,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1115,7 +1105,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1135,22 +1124,11 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -1164,7 +1142,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1213,21 +1191,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="62804864"/>
-        <c:axId val="5899644"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="25924752"/>
+        <c:axId val="194624"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="62804864"/>
+        <c:axId val="25924752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,14 +1254,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5899644"/>
+        <c:crossAx val="194624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5899644"/>
+        <c:axId val="194624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,9 +1326,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62804864"/>
+        <c:crossAx val="25924752"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1587,11 +1557,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="47714303"/>
-        <c:axId val="7435018"/>
+        <c:axId val="34550692"/>
+        <c:axId val="54935145"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47714303"/>
+        <c:axId val="34550692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,14 +1617,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7435018"/>
+        <c:crossAx val="54935145"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7435018"/>
+        <c:axId val="54935145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1654,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t># keer getrained</a:t>
+                  <a:t>Gemiddeld # keer getrained</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1719,7 +1689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47714303"/>
+        <c:crossAx val="34550692"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2036,11 +2006,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="9671903"/>
-        <c:axId val="65550698"/>
+        <c:axId val="32459771"/>
+        <c:axId val="30315127"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9671903"/>
+        <c:axId val="32459771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,14 +2066,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65550698"/>
+        <c:crossAx val="30315127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65550698"/>
+        <c:axId val="30315127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2103,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t># keer getrained</a:t>
+                  <a:t>Gemiddeld # keer getrained</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2168,7 +2138,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9671903"/>
+        <c:crossAx val="32459771"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2221,8 +2191,9 @@
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2242,22 +2213,11 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -2271,7 +2231,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2320,7 +2280,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2340,22 +2299,11 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -2369,7 +2317,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2418,7 +2366,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2438,22 +2385,11 @@
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -2467,7 +2403,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2516,21 +2452,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="26812520"/>
-        <c:axId val="47030420"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="51710192"/>
+        <c:axId val="65881016"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="26812520"/>
+        <c:axId val="51710192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,14 +2515,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47030420"/>
+        <c:crossAx val="65881016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47030420"/>
+        <c:axId val="65881016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,9 +2587,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26812520"/>
+        <c:crossAx val="51710192"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2798,11 +2726,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88494081"/>
-        <c:axId val="21711778"/>
+        <c:axId val="95089335"/>
+        <c:axId val="3331276"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88494081"/>
+        <c:axId val="95089335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,14 +2786,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21711778"/>
+        <c:crossAx val="3331276"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21711778"/>
+        <c:axId val="3331276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2823,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t># keer getrained</a:t>
+                  <a:t>Gemiddeld # keer getrained</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2930,7 +2858,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88494081"/>
+        <c:crossAx val="95089335"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2983,8 +2911,9 @@
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3004,22 +2933,11 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -3033,7 +2951,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3076,21 +2994,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="53125855"/>
-        <c:axId val="80842734"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="22519790"/>
+        <c:axId val="31255487"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="53125855"/>
+        <c:axId val="22519790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3146,14 +3057,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80842734"/>
+        <c:crossAx val="31255487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80842734"/>
+        <c:axId val="31255487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,9 +3129,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53125855"/>
+        <c:crossAx val="22519790"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3272,8 +3182,9 @@
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3293,22 +3204,11 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -3322,7 +3222,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3365,21 +3265,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="73928544"/>
-        <c:axId val="38543630"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="8716394"/>
+        <c:axId val="64597827"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="73928544"/>
+        <c:axId val="8716394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,14 +3328,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38543630"/>
+        <c:crossAx val="64597827"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38543630"/>
+        <c:axId val="64597827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3365,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Uitvoeringstijd</a:t>
+                  <a:t>Gemiddelde uitvoeringstijd</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3507,9 +3400,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73928544"/>
+        <c:crossAx val="8716394"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3561,8 +3453,9 @@
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3582,22 +3475,11 @@
             <a:solidFill>
               <a:srgbClr val="004586"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -3611,7 +3493,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3660,7 +3542,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3680,22 +3561,11 @@
             <a:solidFill>
               <a:srgbClr val="ff420e"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -3709,7 +3579,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3758,7 +3628,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3778,22 +3647,11 @@
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
@@ -3807,7 +3665,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3856,21 +3714,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="25920915"/>
-        <c:axId val="22543519"/>
-      </c:lineChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="3266600"/>
+        <c:axId val="24153692"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="25920915"/>
+        <c:axId val="3266600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,14 +3777,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22543519"/>
+        <c:crossAx val="24153692"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="22543519"/>
+        <c:axId val="24153692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -3964,7 +3815,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Uitvoeringstijd</a:t>
+                  <a:t>Gemiddelde uitvoeringstijd</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3999,9 +3850,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25920915"/>
+        <c:crossAx val="3266600"/>
         <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4058,9 +3908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4069,7 +3919,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5691600" y="9046080"/>
-        <a:ext cx="6458760" cy="3625560"/>
+        <a:ext cx="6458040" cy="3624840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4093,9 +3943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4104,7 +3954,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1051560" y="4607640"/>
-        <a:ext cx="5756040" cy="3234240"/>
+        <a:ext cx="5755320" cy="3233520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4123,9 +3973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>385200</xdr:colOff>
+      <xdr:colOff>384480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4134,7 +3984,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="952560" y="466920"/>
-        <a:ext cx="5934960" cy="3305880"/>
+        <a:ext cx="5934240" cy="3305160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4153,9 +4003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>205200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4164,7 +4014,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9080280" y="488880"/>
-        <a:ext cx="5756040" cy="3238560"/>
+        <a:ext cx="5755320" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4183,9 +4033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4194,7 +4044,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8941680" y="4389120"/>
-        <a:ext cx="5756760" cy="3236760"/>
+        <a:ext cx="5756040" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4213,9 +4063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>760320</xdr:colOff>
+      <xdr:colOff>759600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4224,7 +4074,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16949880" y="385920"/>
-        <a:ext cx="5756040" cy="3238920"/>
+        <a:ext cx="5755320" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4243,9 +4093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>763200</xdr:colOff>
+      <xdr:colOff>762480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4254,7 +4104,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16950600" y="4470120"/>
-        <a:ext cx="5758200" cy="3239280"/>
+        <a:ext cx="5757480" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4273,9 +4123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582120</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4284,7 +4134,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16771680" y="8879400"/>
-        <a:ext cx="5756760" cy="3236760"/>
+        <a:ext cx="5756040" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4303,9 +4153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4314,7 +4164,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9060120" y="8757720"/>
-        <a:ext cx="5756040" cy="3238920"/>
+        <a:ext cx="5755320" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4334,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A5:AG65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M84" activeCellId="0" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5581,8 +5431,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH29" activeCellId="0" sqref="AH29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T49" activeCellId="0" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/data_algoritmes_uitvoeringtests.xlsx
+++ b/Data/data_algoritmes_uitvoeringtests.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Aantal keer</t>
   </si>
   <si>
-    <t xml:space="preserve">Sliding window</t>
+    <t xml:space="preserve">Venster</t>
   </si>
   <si>
     <t xml:space="preserve">trainen</t>
@@ -536,7 +536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sliding window</c:v>
+                  <c:v>Venster</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -829,11 +829,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44198694"/>
-        <c:axId val="92570943"/>
+        <c:axId val="23033545"/>
+        <c:axId val="95200419"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44198694"/>
+        <c:axId val="23033545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,14 +889,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92570943"/>
+        <c:crossAx val="95200419"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92570943"/>
+        <c:axId val="95200419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -962,7 +962,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44198694"/>
+        <c:crossAx val="23033545"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,11 +1194,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25924752"/>
-        <c:axId val="194624"/>
+        <c:axId val="15205583"/>
+        <c:axId val="18257458"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25924752"/>
+        <c:axId val="15205583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1254,14 +1254,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194624"/>
+        <c:crossAx val="18257458"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194624"/>
+        <c:axId val="18257458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1326,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25924752"/>
+        <c:crossAx val="15205583"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1557,11 +1557,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="34550692"/>
-        <c:axId val="54935145"/>
+        <c:axId val="71489502"/>
+        <c:axId val="65406865"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34550692"/>
+        <c:axId val="71489502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,14 +1617,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54935145"/>
+        <c:crossAx val="65406865"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54935145"/>
+        <c:axId val="65406865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34550692"/>
+        <c:crossAx val="71489502"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2006,11 +2006,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="32459771"/>
-        <c:axId val="30315127"/>
+        <c:axId val="48760849"/>
+        <c:axId val="64483408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32459771"/>
+        <c:axId val="48760849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,14 +2066,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30315127"/>
+        <c:crossAx val="64483408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30315127"/>
+        <c:axId val="64483408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2138,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32459771"/>
+        <c:crossAx val="48760849"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2455,11 +2455,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="51710192"/>
-        <c:axId val="65881016"/>
+        <c:axId val="99260078"/>
+        <c:axId val="21896731"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51710192"/>
+        <c:axId val="99260078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,14 +2515,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65881016"/>
+        <c:crossAx val="21896731"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65881016"/>
+        <c:axId val="21896731"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2587,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51710192"/>
+        <c:crossAx val="99260078"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2726,11 +2726,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="95089335"/>
-        <c:axId val="3331276"/>
+        <c:axId val="76795540"/>
+        <c:axId val="5285034"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95089335"/>
+        <c:axId val="76795540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,14 +2786,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3331276"/>
+        <c:crossAx val="5285034"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3331276"/>
+        <c:axId val="5285034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2858,7 +2858,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95089335"/>
+        <c:crossAx val="76795540"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2997,11 +2997,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22519790"/>
-        <c:axId val="31255487"/>
+        <c:axId val="85645255"/>
+        <c:axId val="54545930"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22519790"/>
+        <c:axId val="85645255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3057,14 +3057,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31255487"/>
+        <c:crossAx val="54545930"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31255487"/>
+        <c:axId val="54545930"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3129,7 +3129,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22519790"/>
+        <c:crossAx val="85645255"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3268,11 +3268,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="8716394"/>
-        <c:axId val="64597827"/>
+        <c:axId val="38898790"/>
+        <c:axId val="96248830"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8716394"/>
+        <c:axId val="38898790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,14 +3328,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64597827"/>
+        <c:crossAx val="96248830"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64597827"/>
+        <c:axId val="96248830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8716394"/>
+        <c:crossAx val="38898790"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3717,11 +3717,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="3266600"/>
-        <c:axId val="24153692"/>
+        <c:axId val="39767209"/>
+        <c:axId val="26942110"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3266600"/>
+        <c:axId val="39767209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,14 +3777,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24153692"/>
+        <c:crossAx val="26942110"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24153692"/>
+        <c:axId val="26942110"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="80"/>
@@ -3850,7 +3850,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3266600"/>
+        <c:crossAx val="39767209"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -3908,9 +3908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3919,7 +3919,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5691600" y="9046080"/>
-        <a:ext cx="6458040" cy="3624840"/>
+        <a:ext cx="6457680" cy="3624480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3943,9 +3943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3954,7 +3954,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1051560" y="4607640"/>
-        <a:ext cx="5755320" cy="3233520"/>
+        <a:ext cx="5754960" cy="3233160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3973,9 +3973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>384480</xdr:colOff>
+      <xdr:colOff>384120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3984,7 +3984,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="952560" y="466920"/>
-        <a:ext cx="5934240" cy="3305160"/>
+        <a:ext cx="5933880" cy="3304800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4003,9 +4003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>205200</xdr:colOff>
+      <xdr:colOff>204840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4014,7 +4014,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9080280" y="488880"/>
-        <a:ext cx="5755320" cy="3237840"/>
+        <a:ext cx="5754960" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4033,9 +4033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4044,7 +4044,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8941680" y="4389120"/>
-        <a:ext cx="5756040" cy="3236040"/>
+        <a:ext cx="5755680" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4063,9 +4063,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>759600</xdr:colOff>
+      <xdr:colOff>759240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4074,7 +4074,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16949880" y="385920"/>
-        <a:ext cx="5755320" cy="3238200"/>
+        <a:ext cx="5754960" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4093,9 +4093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>762480</xdr:colOff>
+      <xdr:colOff>762120</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4104,7 +4104,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16950600" y="4470120"/>
-        <a:ext cx="5757480" cy="3238560"/>
+        <a:ext cx="5757120" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4123,9 +4123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>582120</xdr:colOff>
+      <xdr:colOff>581760</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4134,7 +4134,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16771680" y="8879400"/>
-        <a:ext cx="5756040" cy="3236040"/>
+        <a:ext cx="5755680" cy="3235680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4153,9 +4153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>185040</xdr:colOff>
+      <xdr:colOff>184680</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4164,7 +4164,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9060120" y="8757720"/>
-        <a:ext cx="5755320" cy="3238200"/>
+        <a:ext cx="5754960" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4185,7 +4185,7 @@
   <dimension ref="A5:AG65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M84" activeCellId="0" sqref="M84"/>
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
